--- a/resources/new-esrable.xlsx
+++ b/resources/new-esrable.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51494\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAAAAAAAcourse\T2\soft-tech\A1\SoftwareTechnologyGroup47\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B328A49F-E1A7-489D-A97E-F44C2CA73860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BDEDBC-B5E4-41AB-A311-D09B9DBD1CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -465,26 +476,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -781,71 +792,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -859,7 +870,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -871,7 +882,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -883,7 +894,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -895,7 +906,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -907,7 +918,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -919,7 +930,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -931,81 +942,81 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1019,7 +1030,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1031,7 +1042,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1043,7 +1054,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1055,7 +1066,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1067,28 +1078,28 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
